--- a/data/trans_orig/Q46-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>79.92719805813441</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81.02278396732999</v>
+        <v>81.02278396733001</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>66.00824735266782</v>
@@ -681,7 +681,7 @@
         <v>67.43550870221374</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>70.81596407560085</v>
+        <v>70.81596407560086</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>71.99645163611918</v>
@@ -693,7 +693,7 @@
         <v>73.70055016844903</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>75.78358249925354</v>
+        <v>75.78358249925353</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>77.08785390266239</v>
+        <v>77.09899424549684</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>79.24621879635585</v>
+        <v>79.30491707713983</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78.88825172569982</v>
+        <v>78.86885414087246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79.79369224333432</v>
+        <v>79.84138759262775</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>65.05786746229742</v>
+        <v>65.16906352239644</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>66.4610728986853</v>
+        <v>66.5579094027994</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>66.44726472600942</v>
+        <v>66.52958035183413</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>69.18652961829741</v>
+        <v>69.13879371113346</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>71.30008315827148</v>
+        <v>71.34746610055788</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73.16193728322816</v>
+        <v>73.11095842505462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72.91088878264284</v>
+        <v>72.91186444508749</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>74.68244466888018</v>
+        <v>74.65536409194105</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>78.79080977590107</v>
+        <v>78.85582079326619</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>81.36038853160508</v>
+        <v>81.35666000384484</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81.01375752423903</v>
+        <v>80.97887499578137</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>82.20273010110105</v>
+        <v>82.19526536039474</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>66.95605027494214</v>
+        <v>66.90437538838825</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>68.44491733466889</v>
+        <v>68.42949073228452</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>68.44879631346018</v>
+        <v>68.508788758682</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>74.61822335297644</v>
+        <v>74.13751646607206</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>72.702282283438</v>
+        <v>72.74817812818706</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>74.7996049147829</v>
+        <v>74.72360050029499</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>74.47002985415519</v>
+        <v>74.51107557007768</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>77.80426415119764</v>
+        <v>77.68606936138772</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>68.2109976989468</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>68.44862656057585</v>
+        <v>68.44862656057583</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>72.34372285792209</v>
@@ -829,7 +829,7 @@
         <v>73.98626014247745</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>74.13646110619649</v>
+        <v>74.13646110619652</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>78.29446685221507</v>
+        <v>78.31243711552578</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>79.15966460148499</v>
+        <v>79.15089605240618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>78.96022686694462</v>
+        <v>78.98275405045656</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79.00267468402535</v>
+        <v>78.99732525639121</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>64.91905347356486</v>
+        <v>65.04057907082472</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>67.50256074521685</v>
+        <v>67.50594847164827</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>67.35833591649215</v>
+        <v>67.44897413575282</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>67.51599944969497</v>
+        <v>67.56632439201957</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>71.75183828968333</v>
+        <v>71.7368150565574</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73.43676414576909</v>
+        <v>73.42324541734892</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>73.35110362099702</v>
+        <v>73.26192704088027</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>73.46148583985286</v>
+        <v>73.44697863802972</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>79.81395359488468</v>
+        <v>79.8453248976209</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>80.7725961415257</v>
+        <v>80.75898976614381</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80.85893415298931</v>
+        <v>80.87948743798356</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>80.81685384988022</v>
+        <v>80.7852418499685</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>66.43745397244282</v>
+        <v>66.47865874898994</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>69.22225375734195</v>
+        <v>69.25851250937554</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>69.04437529695772</v>
+        <v>69.0041743282061</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>71.00455512129706</v>
+        <v>70.55476792225221</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>72.98162264521387</v>
+        <v>72.93267510463819</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74.80784739914566</v>
+        <v>74.79952881247799</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>74.64412308010573</v>
+        <v>74.62521209031304</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>75.17036088904845</v>
+        <v>75.28624939961084</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>79.23148979400058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80.1846249484115</v>
+        <v>80.18462494841151</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>65.73875142050579</v>
@@ -953,7 +953,7 @@
         <v>66.99113395233402</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>67.89469276424647</v>
+        <v>67.89469276424649</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>71.45380655983932</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>76.414634258257</v>
+        <v>76.44295177309328</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>78.36337654289653</v>
+        <v>78.35072004404232</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78.24767054203288</v>
+        <v>78.25814711712029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>78.98009744358545</v>
+        <v>78.97290528034658</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>64.89053363092434</v>
+        <v>64.81772770742784</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>67.53053741856107</v>
+        <v>67.55168650022468</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>66.0239721387693</v>
+        <v>66.17946496063391</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>67.05650939428911</v>
+        <v>67.11000253038213</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>70.75366904659202</v>
+        <v>70.76333762324724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73.06450290309063</v>
+        <v>73.09361739219666</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>72.26771239036272</v>
+        <v>72.36278906664853</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>73.21309924193983</v>
+        <v>73.27959331591413</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>77.99857199039644</v>
+        <v>78.13149201271462</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>80.33864887480786</v>
+        <v>80.26132817606627</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80.23843914543698</v>
+        <v>80.32319685234373</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>81.39134615027098</v>
+        <v>81.33572093358961</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>66.61183984234127</v>
+        <v>66.64250074392814</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>69.46722824468091</v>
+        <v>69.503079103936</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>68.03242133384998</v>
+        <v>68.07662163993602</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>68.7352929332074</v>
+        <v>68.84389824507528</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>72.0688527980267</v>
+        <v>72.16073100571414</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>74.52809773663638</v>
+        <v>74.62786147905362</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73.82995014230511</v>
+        <v>73.94275148489599</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>74.80514002912449</v>
+        <v>74.80771851498135</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>80.61646474645896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80.61904997083781</v>
+        <v>80.61904997083782</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>64.8707006504724</v>
@@ -1101,7 +1101,7 @@
         <v>73.8994504499116</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>73.79451825174696</v>
+        <v>73.79451825174698</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>76.68714313248839</v>
+        <v>76.82431201767227</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>79.23720358385533</v>
+        <v>79.17338864302046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>79.75796563007242</v>
+        <v>79.79394009958055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79.67646096834692</v>
+        <v>79.72860676943644</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>64.05064017179718</v>
+        <v>64.11090039211032</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>66.95226080840452</v>
+        <v>66.99334055335468</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>66.86129684616598</v>
+        <v>66.87973804251085</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>66.93839985174002</v>
+        <v>66.95064163309573</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>70.32940088962782</v>
+        <v>70.32017350802123</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72.96994204390784</v>
+        <v>72.91805635275155</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73.24890887805859</v>
+        <v>73.2303070532456</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>73.16235239147883</v>
+        <v>73.14992522952419</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>78.31530089641458</v>
+        <v>78.38747030315081</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>80.87148552968587</v>
+        <v>80.88612182036007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>81.48027453459655</v>
+        <v>81.50819666920346</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>81.56203636785679</v>
+        <v>81.57764966626874</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>65.6801920068856</v>
+        <v>65.70888192537456</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>68.54083727632477</v>
+        <v>68.54289207151859</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>68.5161019332829</v>
+        <v>68.59942195393036</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>68.4765528455579</v>
+        <v>68.45300022788602</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>71.49819420877959</v>
+        <v>71.57515355900887</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>74.30090009134993</v>
+        <v>74.15912863346742</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>74.58702044189444</v>
+        <v>74.58544585055797</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>74.50233539453973</v>
+        <v>74.43728418484594</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>79.95613944621526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80.37328859528202</v>
+        <v>80.37328859528205</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>65.5227406736708</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>77.57112655957694</v>
+        <v>77.56815769755312</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>79.47201236170845</v>
+        <v>79.43473368996708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>79.45392435379054</v>
+        <v>79.5058302764659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79.83551267180459</v>
+        <v>79.83776872875769</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>65.13308978391727</v>
+        <v>65.12768476324082</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>67.5434688471142</v>
+        <v>67.60772823155678</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>67.23598772861108</v>
+        <v>67.22441384004135</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>68.03268295909014</v>
+        <v>68.03415700334652</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>71.35705400340663</v>
+        <v>71.3476128708123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73.49272628647525</v>
+        <v>73.51263705694267</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73.30418674640894</v>
+        <v>73.31896942458768</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>73.98550974754713</v>
+        <v>73.95999768872639</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>78.36863380534832</v>
+        <v>78.39353625924844</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>80.34125796768305</v>
+        <v>80.3190056698102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80.47354571661948</v>
+        <v>80.46268202940919</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80.91760749249561</v>
+        <v>80.90614703976384</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>65.93496469423133</v>
+        <v>65.97110963585564</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>68.4549223829364</v>
+        <v>68.48633249981351</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>68.11390901922749</v>
+        <v>68.11574506848034</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>69.41437685271907</v>
+        <v>69.42060793214488</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>71.98769517139426</v>
+        <v>71.99903332504643</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74.23045713693277</v>
+        <v>74.18566037626836</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74.05274744059646</v>
+        <v>74.09872135895863</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>74.84797068390431</v>
+        <v>74.82669621139659</v>
       </c>
     </row>
     <row r="19">
